--- a/HojasDeCalculo_XLSX(Excel)/Excel_DesgloseTecnico.xlsx
+++ b/HojasDeCalculo_XLSX(Excel)/Excel_DesgloseTecnico.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repositorio NEyDdPW\NEyDdPW\HojasDeCalculo_XLSX(Excel)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFEDE4F-AFE0-46C6-8763-3C8305A42020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9600" yWindow="5580" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Empresa" sheetId="1" r:id="rId1"/>
+    <sheet name="Proyecto de Negocios" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,176 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puesto </t>
+  </si>
+  <si>
+    <t>Puestos Disponibles</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>Diseñador Web</t>
+  </si>
+  <si>
+    <t>Diseñador Grafico</t>
+  </si>
+  <si>
+    <t>Gerente General</t>
+  </si>
+  <si>
+    <t>Gerente de Ventas</t>
+  </si>
+  <si>
+    <t>Ventas - Vendedor</t>
+  </si>
+  <si>
+    <t>Promotor</t>
+  </si>
+  <si>
+    <t>Marketing y Publicidad</t>
+  </si>
+  <si>
+    <t>Socio Inversionista</t>
+  </si>
+  <si>
+    <t>Contador</t>
+  </si>
+  <si>
+    <t>Asesor Legal - Abogado</t>
+  </si>
+  <si>
+    <t>Personal Actual en Nomina</t>
+  </si>
+  <si>
+    <t>Mariana Arguelles Macosay</t>
+  </si>
+  <si>
+    <t>Rogelio Gerardo Aquino Santiago</t>
+  </si>
+  <si>
+    <t>Alam Josué Guillen López</t>
+  </si>
+  <si>
+    <t>2 Puesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado el tamaño iniciaal de la empresa se preten de que los socios inversionistas sean socios activos dentro del aempresa durante un periodo determinado de tiempo. </t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>3 Puesto</t>
+  </si>
+  <si>
+    <t>Integrantes</t>
+  </si>
+  <si>
+    <t>Coolaboracion Principal</t>
+  </si>
+  <si>
+    <t>Colaboracion Secundaria</t>
+  </si>
+  <si>
+    <t>Colaboro en</t>
+  </si>
+  <si>
+    <t>Desarrollo de la Paguina Web</t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>Documentacion y Manual de Usuario</t>
+  </si>
+  <si>
+    <t>Desarrollo de los Documentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuestos e Investigacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño e Ideas, Documentacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participacion en la creacion del proyecto </t>
+  </si>
+  <si>
+    <t>Todos los integrantes del equipo aportaron a cada una de las etapas de la realización del proyecto independientemente de lo que aparezca en la tabla en la parte superior de este documento .</t>
+  </si>
+  <si>
+    <t>Clave_P</t>
+  </si>
+  <si>
+    <t>Sueldos Mensuales</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Utilizar las claves para ligar las tablas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los saldos mensuales que aparecen en esta tabla constan de los salarios actuales investigados en el mes de agosto del 2021. </t>
+  </si>
+  <si>
+    <t>Espectativa</t>
+  </si>
+  <si>
+    <t>El administrador se encargara de los procesos de administacion que se realicen dentro de la empresa, asi como definir los tiempos y metas de cada mes y por cada integrante que se encuentre incluido directa o indirectamente en el proyecto.</t>
+  </si>
+  <si>
+    <t>El asesor legal atendera todos los inconvenientes que surgan como demandas u cassa de despido, abandono laboral entre otros que surgan dentro de la compañía y se encargara de que la compañía cumpla las regulaciones que marca la ley</t>
+  </si>
+  <si>
+    <t>El contador llevara la contabilidad de la empresa asegurandose de que todos los gastos es ingresos queden registrados y sean correctos</t>
+  </si>
+  <si>
+    <t>El desarrollador se encarga de la creacion y actualizacion de la aplicación y paguina web de la empresa, tambien de la correcion de fallas inesperadas y bugs.</t>
+  </si>
+  <si>
+    <t>El diseñador grafico se encargara de la creacion de diseños , logotipos, diseño de productos que vallan acorde con la tematica de la empresa.</t>
+  </si>
+  <si>
+    <t>El diseñador web se hara cargo de la visibilidad de la pagina, de la accesibilidad de la misma, de las funcionalidades y tematica de esta.</t>
+  </si>
+  <si>
+    <t>EL gerente de ventas se encarga que el equipo de ventas este organizado y que cumpla los objetivos de ventas, es el responsable de marcar las estrategias de ventas por lo tanto esta directamente relacionado con publicidad</t>
+  </si>
+  <si>
+    <t>El encargado de Marketing y publicidad sera quien proponga ideas innovadoras sobra la distribucion de recursos de publicidad asi como los metodos publicitarios a usar</t>
+  </si>
+  <si>
+    <t>Los promotores saldran al "campo" a promover el producto y brindar informacion del mismo a las masas</t>
+  </si>
+  <si>
+    <t>El gerente general es el encargado de toda la compañía siendo el representante de los socios inversionistas ante el personal de la empresa.</t>
+  </si>
+  <si>
+    <t>Los  socios inversionistas son aquellos que aportan capital a ala empresa y reciben un porcentaje de las percepciones de la empresa o un salario de la misma.</t>
+  </si>
+  <si>
+    <t>Los vendedores se encargan de vender el producto ya se desde el chat de la aplicación, o por llamadas telefonicas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +202,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -45,17 +263,727 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +994,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C423E9B8-894E-4E77-8609-9B343BD0AC61}" name="Tabla2" displayName="Tabla2" ref="A5:B17" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23" tableBorderDxfId="12">
+  <autoFilter ref="A5:B17" xr:uid="{C423E9B8-894E-4E77-8609-9B343BD0AC61}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B17">
+    <sortCondition ref="A5:A17"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{973EB8AD-3296-4E77-97CD-053ACA66D195}" name="Puestos Disponibles" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A1C03FA2-1423-4317-90CD-AF6A3F9AA438}" name="Clave_P" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45642A39-8260-4102-BEB9-33CD8C96B1A7}" name="Tabla3" displayName="Tabla3" ref="A20:D23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21" tableBorderDxfId="9">
+  <autoFilter ref="A20:D23" xr:uid="{45642A39-8260-4102-BEB9-33CD8C96B1A7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:B23">
+    <sortCondition ref="B20:B23"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E382BAEA-A437-4037-B15E-367469E911C5}" name="Personal Actual en Nomina" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4F352EDE-CC4B-46EB-98A6-6F5DEEFA20A0}" name="Puesto " dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6BC7623D-3A61-43B2-8C61-655C936D956F}" name="2 Puesto" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{52379614-2449-42A0-A118-0015F5D988B1}" name="3 Puesto" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E00878C9-5EA1-4243-9E82-2BAA1694259B}" name="Tabla26" displayName="Tabla26" ref="A26:B38" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A26:B38" xr:uid="{E00878C9-5EA1-4243-9E82-2BAA1694259B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:B38">
+    <sortCondition ref="A5:A17"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{618C1CB6-C2D8-4536-8E49-01A26994A8BB}" name="Sueldos Mensuales" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4EF555E7-D998-4A5B-AB66-3C5264A71357}" name="Clave_P" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A7607BB-8A60-444C-9B99-CF2641E50299}" name="Tabla35" displayName="Tabla35" ref="A4:D7" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A4:D7" xr:uid="{7A7607BB-8A60-444C-9B99-CF2641E50299}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B7">
+    <sortCondition ref="B20:B23"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F816C7E9-DD7C-4EE7-82ED-EDA83E1A3FE5}" name="Integrantes" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{70A68D86-1D92-4DF8-9B84-A47305241769}" name="Coolaboracion Principal" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{853AD0D1-2C0B-468A-9F94-A1779BF34DCC}" name="Colaboracion Secundaria" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{EB7FEDED-6838-4B56-9B6F-1DA64F445F6D}" name="Colaboro en" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1318,594 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>8000</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>11000</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>9900</v>
+      </c>
+      <c r="B29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>20000</v>
+      </c>
+      <c r="B30" s="10">
+        <v>4</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>11500</v>
+      </c>
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>13000</v>
+      </c>
+      <c r="B32" s="10">
+        <v>6</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>15000</v>
+      </c>
+      <c r="B33" s="10">
+        <v>7</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>17000</v>
+      </c>
+      <c r="B34" s="10">
+        <v>8</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>13000</v>
+      </c>
+      <c r="B35" s="10">
+        <v>9</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>6500</v>
+      </c>
+      <c r="B36" s="10">
+        <v>10</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="10">
+        <v>11</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>6000</v>
+      </c>
+      <c r="B38" s="10">
+        <v>12</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="21">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F20:I23"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="D26:E38"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE9E115-BA27-4B46-B151-1C5E6B122AEE}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>